--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Financial analyst\Analyst\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Financial analyst\Python_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Curricumlum tracking" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="FRA" sheetId="7" r:id="rId3"/>
-    <sheet name="Equity" sheetId="6" r:id="rId4"/>
-    <sheet name="facebook" sheetId="5" r:id="rId5"/>
+    <sheet name="Equity" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="facebook" sheetId="5" r:id="rId4"/>
+    <sheet name="2400h-perfection" sheetId="8" r:id="rId5"/>
     <sheet name="cards" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="487">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1354,18 +1354,6 @@
     <t>https://www.facebook.com/humansoffice/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/trangdentv/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GordonRamsayVietnamese/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/psychologytoday/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/HNNMGO/</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
@@ -1376,13 +1364,142 @@
   </si>
   <si>
     <t>red ink: completed 100%</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hours put in</t>
+  </si>
+  <si>
+    <t>(1) Humour</t>
+  </si>
+  <si>
+    <t>(2) Finance &amp; Investment</t>
+  </si>
+  <si>
+    <t>(3) Programming</t>
+  </si>
+  <si>
+    <t>(4) Common knowledge</t>
+  </si>
+  <si>
+    <t>(5) Books</t>
+  </si>
+  <si>
+    <t>(6) Music</t>
+  </si>
+  <si>
+    <t>(7) Fitness</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>(a prime number :) )</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>To perfection !!!</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1430307927238975/?ref=group_browse_new</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/780485565464752/?ref=group_browse_new</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/pythonsnake/?ref=group_browse_new</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/hongbien/?ref=group_browse_new</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/860936880721980/?ref=category_discover_landing</t>
+  </si>
+  <si>
+    <t>https://annual.cfainstitute.org/2018/06/15/4-ways-millennials-can-avoid-following-their-passion/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hongmoingay/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TruyenVozF17/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tuoitrecuoi/?hc_ref=ARScdxNNr2uLzZLZAmLTOnZmfdpKhvtRIH_lxyxCNf0pg5bQjKyJRie3EB7Q6CA1_YM&amp;fref=nf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/We.Are.vOzer/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BatHuVozer/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VangXamComic/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pagechuithue/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ngondoidudu/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thangfly/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hoibua/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) Python CSS </t>
+  </si>
+  <si>
+    <t>(2) CFA: Build encyclopedia</t>
+  </si>
+  <si>
+    <t>(7) Gym</t>
+  </si>
+  <si>
+    <t>(4) CSS knowledge &amp; exercise</t>
+  </si>
+  <si>
+    <t>Microsoft word: 2</t>
+  </si>
+  <si>
+    <t>Microsoft excel: 2</t>
+  </si>
+  <si>
+    <t>Google: 1</t>
+  </si>
+  <si>
+    <t>Huyen Nhu: 1h</t>
+  </si>
+  <si>
+    <t>Khung hoang kinh te Viet Nam: 1h</t>
+  </si>
+  <si>
+    <t>Doanh nhan Vietnam: 1h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1476,8 +1593,34 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,8 +1642,20 @@
     <fill>
       <patternFill patternType="mediumGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1508,11 +1663,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1536,6 +1706,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1909,7 +2090,7 @@
     </row>
     <row r="2" spans="1:29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D2" s="11">
         <f>(1080000-450000+210000)/350</f>
@@ -2841,7 +3022,7 @@
         <v>214</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3584,18 +3765,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3607,10 +3776,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,6 +4492,171 @@
       </c>
       <c r="D66" t="s">
         <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A24:A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4332,103 +4666,467 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>443</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="29">
+        <v>2400</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="29">
+        <f>B1-SUM(C7:C1048576)</f>
+        <v>2387.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="26">
+        <v>43283</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3">
+        <f xml:space="preserve"> 2+ 7+ 2018</f>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="33">
+        <f>(B1-B2)/B1</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J4" t="s">
+        <v>485</v>
+      </c>
+      <c r="K4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>43283</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>43284</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="27">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="490">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1493,6 +1493,15 @@
   </si>
   <si>
     <t>Doanh nhan Vietnam: 1h</t>
+  </si>
+  <si>
+    <t>(3) Python learning</t>
+  </si>
+  <si>
+    <t>(3) Python class</t>
+  </si>
+  <si>
+    <t>(3) C4E18 class</t>
   </si>
 </sst>
 </file>
@@ -4669,11 +4678,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4726,7 +4735,7 @@
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2387.5</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4750,7 +4759,7 @@
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>5.208333333333333E-3</v>
+        <v>1.7916666666666668E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -4850,7 +4859,7 @@
         <v>480</v>
       </c>
       <c r="C12" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="27"/>
     </row>
@@ -4865,75 +4874,133 @@
       <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26">
+        <v>43285</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="27">
+        <v>6</v>
+      </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26">
+        <v>43286</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="27">
+        <v>6</v>
+      </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2.5</v>
+      </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26">
+        <v>43287</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="27">
+        <v>5</v>
+      </c>
       <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26">
+        <v>43288</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
       <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2</v>
+      </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26">
+        <v>43289</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2.5</v>
+      </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="27">
+        <v>1.5</v>
+      </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5127,6 +5194,12 @@
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="491">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1483,9 +1483,6 @@
     <t>Microsoft excel: 2</t>
   </si>
   <si>
-    <t>Google: 1</t>
-  </si>
-  <si>
     <t>Huyen Nhu: 1h</t>
   </si>
   <si>
@@ -1498,10 +1495,16 @@
     <t>(3) Python learning</t>
   </si>
   <si>
-    <t>(3) Python class</t>
-  </si>
-  <si>
     <t>(3) C4E18 class</t>
+  </si>
+  <si>
+    <t>(4) Google search</t>
+  </si>
+  <si>
+    <t>to import</t>
+  </si>
+  <si>
+    <t>Relax</t>
   </si>
 </sst>
 </file>
@@ -4678,11 +4681,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4735,7 +4738,7 @@
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2357</v>
+        <v>2362.75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4759,7 +4762,7 @@
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>1.7916666666666668E-2</v>
+        <v>1.5520833333333333E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -4768,17 +4771,14 @@
       <c r="G4" t="s">
         <v>482</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>483</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>484</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>485</v>
-      </c>
-      <c r="K4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4888,12 +4888,14 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
@@ -4903,14 +4905,14 @@
         <v>478</v>
       </c>
       <c r="C16" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C17" s="27">
         <v>2.5</v>
@@ -4932,42 +4934,44 @@
         <v>43287</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>43288</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="27">
         <v>5</v>
       </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C21" s="27">
         <v>1</v>
       </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
-        <v>43288</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26">
+        <v>43289</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C22" s="27">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D22" s="27"/>
     </row>
@@ -4977,30 +4981,24 @@
         <v>478</v>
       </c>
       <c r="C23" s="27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
-        <v>43289</v>
-      </c>
+      <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C24" s="27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="27">
-        <v>1.5</v>
-      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5188,18 +5186,6 @@
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="498">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1505,6 +1505,27 @@
   </si>
   <si>
     <t>Relax</t>
+  </si>
+  <si>
+    <t>(3) Python class</t>
+  </si>
+  <si>
+    <t>url_for in flask</t>
+  </si>
+  <si>
+    <t>Form method: GET, POST</t>
+  </si>
+  <si>
+    <t>Truyen bien sang HTML</t>
+  </si>
+  <si>
+    <t>flask: app.secret_key</t>
+  </si>
+  <si>
+    <t>mongoengine &amp; pymongo documentation</t>
+  </si>
+  <si>
+    <t>Session-web (request &amp; send)</t>
   </si>
 </sst>
 </file>
@@ -4681,11 +4702,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4738,7 +4759,7 @@
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2362.75</v>
+        <v>2346.75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4762,7 +4783,7 @@
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>1.5520833333333333E-2</v>
+        <v>2.2187499999999999E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -4784,6 +4805,24 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
+      <c r="F5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I5" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" t="s">
+        <v>496</v>
+      </c>
+      <c r="K5" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
@@ -4949,7 +4988,7 @@
         <v>486</v>
       </c>
       <c r="C20" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="27"/>
     </row>
@@ -4965,28 +5004,30 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
-        <v>43289</v>
+        <v>43292</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C22" s="27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C23" s="27">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26">
+        <v>43293</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>479</v>
       </c>
@@ -4997,32 +5038,54 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="27">
+        <v>4</v>
+      </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="27">
+        <v>2.5</v>
+      </c>
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26">
+        <v>43294</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1</v>
+      </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C28" s="27">
+        <v>4</v>
+      </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" s="27">
+        <v>2.5</v>
+      </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,18 +5237,6 @@
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="499">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1526,6 +1526,9 @@
   </si>
   <si>
     <t>Session-web (request &amp; send)</t>
+  </si>
+  <si>
+    <t>Review Aura</t>
   </si>
 </sst>
 </file>
@@ -4702,11 +4705,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C29"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4759,7 +4762,7 @@
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2346.75</v>
+        <v>2342.75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4783,7 +4786,7 @@
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>2.2187499999999999E-2</v>
+        <v>2.3854166666666666E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -5020,90 +5023,102 @@
         <v>486</v>
       </c>
       <c r="C23" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="27">
+        <v>4</v>
+      </c>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
         <v>43293</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B25" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C25" s="27">
         <v>1</v>
-      </c>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="C25" s="27">
-        <v>4</v>
       </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="27">
+        <v>4</v>
+      </c>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C27" s="27">
         <v>2.5</v>
-      </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
-        <v>43294</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="C27" s="27">
-        <v>1</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C28" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26">
+        <v>43294</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C29" s="27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="27">
+        <v>4</v>
+      </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="27">
+        <v>2.5</v>
+      </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="27">
+        <v>2</v>
+      </c>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5237,6 +5252,18 @@
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Curricumlum tracking" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Equity" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="facebook" sheetId="5" r:id="rId4"/>
     <sheet name="2400h-perfection" sheetId="8" r:id="rId5"/>
-    <sheet name="cards" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Study abroad" sheetId="9" r:id="rId6"/>
+    <sheet name="cards" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="513">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1507,9 +1508,6 @@
     <t>Relax</t>
   </si>
   <si>
-    <t>(3) Python class</t>
-  </si>
-  <si>
     <t>url_for in flask</t>
   </si>
   <si>
@@ -1528,14 +1526,61 @@
     <t>Session-web (request &amp; send)</t>
   </si>
   <si>
-    <t>Review Aura</t>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>https://www.sbs.ox.ac.uk/programmes/degrees/mfe/how-to-apply</t>
+  </si>
+  <si>
+    <t>Msc-Financial economics</t>
+  </si>
+  <si>
+    <t>Special requirement</t>
+  </si>
+  <si>
+    <t>IELTS requirement</t>
+  </si>
+  <si>
+    <t>School rank
+ in finance</t>
+  </si>
+  <si>
+    <t>Application 
+opened on</t>
+  </si>
+  <si>
+    <t>GMAT/GRE</t>
+  </si>
+  <si>
+    <t>Birkbeck, University of London</t>
+  </si>
+  <si>
+    <t>http://www.bbk.ac.uk/study/2018/postgraduate/programmes/TMSECFIN_C/#fees-info</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Application fee</t>
+  </si>
+  <si>
+    <t>Target countries: England - America - Canada - Australia - Newzealand  - Ireland - Finland  - France - Singapore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1655,8 +1700,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,6 +1743,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1718,7 +1777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1753,6 +1812,10 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4705,11 +4768,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C24"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4762,7 +4825,7 @@
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2342.75</v>
+        <v>2351.25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4786,7 +4849,7 @@
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>2.3854166666666666E-2</v>
+        <v>2.0312500000000001E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -4809,22 +4872,22 @@
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="F5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G5" t="s">
         <v>492</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>493</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>494</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>495</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>496</v>
-      </c>
-      <c r="K5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -5052,73 +5115,57 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C26" s="27">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26">
+        <v>43294</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C27" s="27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C28" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
-        <v>43294</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1</v>
-      </c>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" s="27">
-        <v>4</v>
-      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="C31" s="27">
-        <v>2.5</v>
-      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
-      <c r="B32" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C32" s="27">
-        <v>2</v>
-      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,18 +5299,6 @@
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5271,6 +5306,105 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" s="23">
+        <v>43313</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5">
+        <v>17975</v>
+      </c>
+      <c r="G5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
@@ -5903,7 +6037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="655">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -1478,9 +1478,6 @@
   </si>
   <si>
     <t>(4) CSS knowledge &amp; exercise</t>
-  </si>
-  <si>
-    <t>Microsoft word: 2</t>
   </si>
   <si>
     <t>Microsoft excel: 2</t>
@@ -1911,6 +1908,105 @@
   </si>
   <si>
     <t>2h build encyclopedia per day</t>
+  </si>
+  <si>
+    <t>August: Done CF</t>
+  </si>
+  <si>
+    <t>September: Done Econ</t>
+  </si>
+  <si>
+    <t>October: Done FI</t>
+  </si>
+  <si>
+    <t>November: PM</t>
+  </si>
+  <si>
+    <t>December: Quant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January: </t>
+  </si>
+  <si>
+    <t>(4) IELTS</t>
+  </si>
+  <si>
+    <t>Expected: 80</t>
+  </si>
+  <si>
+    <t>Expected: Writing: 14; Speaking: 12; Listening: 10</t>
+  </si>
+  <si>
+    <t>From 2-July-2018 to date-charge back</t>
+  </si>
+  <si>
+    <t>Microsoft word: 3</t>
+  </si>
+  <si>
+    <t>Stay at home</t>
+  </si>
+  <si>
+    <t>Study abroad</t>
+  </si>
+  <si>
+    <t>(4) GMAT</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Listening (Do it once and do it right)</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>12 x 0.5 (IELTS)</t>
+  </si>
+  <si>
+    <t>12 x 0.5 (youtube)</t>
+  </si>
+  <si>
+    <t>Writing task 1 + 2 listening</t>
+  </si>
+  <si>
+    <t>Writing task 1 + 2 listening + Review 10 vocab + 1 reading</t>
+  </si>
+  <si>
+    <t>GMAT: 240h</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Opinions + 3 listening + 1 reading</t>
+  </si>
+  <si>
+    <t>Discussion + 3 listening</t>
+  </si>
+  <si>
+    <t>Adv/disadv + 3 listening</t>
+  </si>
+  <si>
+    <t>Cause &amp; solutions + 3 listening + 1 reading</t>
+  </si>
+  <si>
+    <t>3 listening</t>
+  </si>
+  <si>
+    <t>IELTS test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 reading + 2 listening </t>
+  </si>
+  <si>
+    <t>2 listening</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2215,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2195,8 +2291,20 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2297,13 +2405,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2462,6 +2581,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5733,11 +5857,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C32"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5745,14 +5869,15 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>445</v>
       </c>
@@ -5784,16 +5909,22 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>446</v>
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2347.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2261.25</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>636</v>
+      </c>
+      <c r="N2" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>456</v>
       </c>
@@ -5807,55 +5938,73 @@
         <f xml:space="preserve"> 2+ 7+ 2018</f>
         <v>2027</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="83" t="s">
+        <v>637</v>
+      </c>
+      <c r="N3" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>460</v>
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>2.1770833333333333E-2</v>
+        <v>5.7812500000000003E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
+        <v>632</v>
+      </c>
+      <c r="G4" t="s">
         <v>481</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>482</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>483</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>484</v>
       </c>
-      <c r="K4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="83" t="s">
+        <v>638</v>
+      </c>
+      <c r="N4" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="F5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" t="s">
         <v>491</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>492</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>493</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>494</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>495</v>
       </c>
-      <c r="K5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M5" s="83" t="s">
+        <v>639</v>
+      </c>
+      <c r="N5" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>447</v>
       </c>
@@ -5869,7 +6018,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>43283</v>
       </c>
@@ -5880,8 +6029,11 @@
         <v>1.5</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>478</v>
@@ -5890,8 +6042,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>479</v>
@@ -5900,8 +6055,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f>2*30</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
         <v>449</v>
@@ -5911,7 +6070,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>43284</v>
       </c>
@@ -5922,8 +6081,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="23">
+        <v>43305</v>
+      </c>
+      <c r="H11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
         <v>480</v>
@@ -5932,8 +6097,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="23">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
         <v>449</v>
@@ -5943,7 +6111,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>43285</v>
       </c>
@@ -5954,20 +6122,34 @@
         <v>6</v>
       </c>
       <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>633</v>
+      </c>
+      <c r="I14">
+        <f>H11*7</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C15" s="27">
         <v>0.25</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" t="s">
+        <v>634</v>
+      </c>
+      <c r="I15">
+        <f>250*5</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>43286</v>
       </c>
@@ -5979,17 +6161,20 @@
       </c>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C17" s="27">
         <v>2.5</v>
       </c>
       <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
         <v>479</v>
@@ -5998,32 +6183,122 @@
         <v>1</v>
       </c>
       <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>623</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="I18" s="84">
+        <f>((40-8)/40)*9</f>
+        <v>7.2</v>
+      </c>
+      <c r="J18" s="84">
+        <f>((40-6)/40)*9</f>
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="K18" s="84">
+        <f>((40-6)/40)*9</f>
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="L18" s="84">
+        <v>4</v>
+      </c>
+      <c r="M18" s="84">
+        <v>5</v>
+      </c>
+      <c r="N18" s="84">
+        <v>6</v>
+      </c>
+      <c r="O18" s="84">
+        <v>7</v>
+      </c>
+      <c r="P18" s="84">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="84">
+        <v>9</v>
+      </c>
+      <c r="R18" s="84">
+        <v>10</v>
+      </c>
+      <c r="S18" s="84">
+        <v>11</v>
+      </c>
+      <c r="T18" s="84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>43287</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
       <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>624</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="I19" s="84">
+        <v>1</v>
+      </c>
+      <c r="J19" s="84">
+        <v>2</v>
+      </c>
+      <c r="K19" s="84">
+        <v>3</v>
+      </c>
+      <c r="L19" s="84">
+        <v>4</v>
+      </c>
+      <c r="M19" s="84">
+        <v>5</v>
+      </c>
+      <c r="N19" s="27">
+        <v>6</v>
+      </c>
+      <c r="O19" s="27">
+        <v>7</v>
+      </c>
+      <c r="P19" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>9</v>
+      </c>
+      <c r="R19" s="27">
+        <v>10</v>
+      </c>
+      <c r="S19" s="27">
+        <v>11</v>
+      </c>
+      <c r="T19" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>43288</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C20" s="27">
         <v>6</v>
       </c>
       <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="27" t="s">
         <v>479</v>
@@ -6032,8 +6307,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>626</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>43292</v>
       </c>
@@ -6044,18 +6325,36 @@
         <v>1</v>
       </c>
       <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>627</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="27">
+        <v>2</v>
+      </c>
+      <c r="K22" s="27">
+        <v>3</v>
+      </c>
+      <c r="L22" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C23" s="27">
         <v>1</v>
       </c>
       <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
         <v>478</v>
@@ -6065,7 +6364,7 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>43293</v>
       </c>
@@ -6077,7 +6376,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
         <v>478</v>
@@ -6086,8 +6385,11 @@
         <v>4.5</v>
       </c>
       <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>43302</v>
       </c>
@@ -6098,21 +6400,26 @@
         <v>1</v>
       </c>
       <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <v>43303</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C28" s="27">
         <v>1</v>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>43304</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>479</v>
       </c>
@@ -6120,169 +6427,867 @@
         <v>1</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="E29" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
-        <v>43304</v>
-      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
       <c r="B30" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C30" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" s="27">
+        <v>10</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
         <v>43305</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B32" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="27">
         <v>3.5</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1</v>
       </c>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
       <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="26">
+        <v>43306</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" s="27">
+        <v>3</v>
+      </c>
       <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="27">
+        <v>1</v>
+      </c>
       <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="26">
+        <v>43307</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" s="27">
+        <v>2</v>
+      </c>
+      <c r="D38" s="80"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C39" s="27">
+        <v>3</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1</v>
+      </c>
+      <c r="D40" s="80"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="26">
+        <v>43308</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C41" s="27">
+        <v>2</v>
+      </c>
+      <c r="D41" s="80"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="27">
+        <v>1</v>
+      </c>
+      <c r="D42" s="80"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="27">
+        <v>5</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="26">
+        <v>43309</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
+      <c r="D44" s="80"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C45" s="27">
+        <v>5</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="26">
+        <v>43310</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C46" s="27">
+        <v>5</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="26">
+        <v>43311</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="27">
+        <v>1</v>
+      </c>
+      <c r="D47" s="80"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C48" s="27">
+        <v>4</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C49" s="27">
+        <v>3</v>
+      </c>
       <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="26">
+        <v>43312</v>
+      </c>
+      <c r="B50" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="27">
+        <v>1</v>
+      </c>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C51" s="27">
+        <v>3</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C52" s="27">
+        <v>3</v>
+      </c>
+      <c r="D52" s="80"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="26">
+        <v>43318</v>
+      </c>
+      <c r="B53" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" s="27">
+        <v>1</v>
+      </c>
       <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C54" s="27">
+        <v>3</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C55" s="27">
+        <v>2</v>
+      </c>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="26">
+        <v>43319</v>
+      </c>
+      <c r="B56" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C56" s="27">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C57" s="27">
+        <v>3</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C58" s="27">
+        <v>2</v>
+      </c>
+      <c r="D58" s="27"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="26">
+        <v>43320</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C59" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="26">
+        <v>43321</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C62" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="26">
+        <v>43322</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
+        <v>43323</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
+        <v>43324</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="26">
+        <v>43325</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="26">
+        <v>43326</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="26">
+        <v>43327</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="26">
+        <v>43328</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="C82" s="27">
+        <v>4</v>
+      </c>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6313,36 +7318,36 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>506</v>
-      </c>
       <c r="F3" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>504</v>
-      </c>
       <c r="I3" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>444</v>
@@ -6351,26 +7356,26 @@
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>500</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>501</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="26">
         <v>43313</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H4" s="27">
         <v>7.5</v>
@@ -6383,26 +7388,26 @@
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>509</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -6411,24 +7416,24 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H6" s="27">
         <v>6</v>
@@ -6441,26 +7446,26 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>516</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>517</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -6468,7 +7473,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -6477,7 +7482,7 @@
         <v>43374</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -6487,12 +7492,12 @@
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -6511,7 +7516,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -6530,7 +7535,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -6546,7 +7551,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -6563,7 +7568,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -6580,21 +7585,21 @@
     </row>
     <row r="14" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E14" s="26">
         <v>43586</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -6605,17 +7610,17 @@
     </row>
     <row r="15" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="38"/>
       <c r="G15" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -6626,21 +7631,21 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>555</v>
-      </c>
       <c r="G16" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -6654,7 +7659,7 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E17" s="26">
         <v>43646</v>
@@ -6670,7 +7675,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -6702,7 +7707,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -6749,7 +7754,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
@@ -6757,22 +7762,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
@@ -6780,7 +7785,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6791,32 +7796,32 @@
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
@@ -6824,7 +7829,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6867,83 +7872,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="99" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="C1" s="99" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="D1" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="88" t="s">
         <v>561</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="88" t="s">
         <v>562</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="88" t="s">
         <v>563</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="83" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="95" t="s">
         <v>565</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="90" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="83" t="s">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="83" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="88" t="s">
         <v>568</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="83" t="s">
+      <c r="U1" s="86"/>
+      <c r="V1" s="88" t="s">
         <v>569</v>
       </c>
-      <c r="U1" s="81"/>
-      <c r="V1" s="83" t="s">
+      <c r="W1" s="86"/>
+      <c r="X1" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="83" t="s">
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="88" t="s">
         <v>571</v>
       </c>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="83" t="s">
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="83" t="s">
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="83" t="s">
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="88" t="s">
         <v>575</v>
       </c>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="83" t="s">
-        <v>576</v>
-      </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="87"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="92"/>
       <c r="AN1" s="46"/>
       <c r="AO1" s="46"/>
       <c r="AP1" s="46"/>
@@ -6960,104 +7965,104 @@
       <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>577</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG2" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="AH2" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI2" s="49" t="s">
         <v>578</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="T2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="U2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="V2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="W2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="X2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="Y2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="Z2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="AB2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="AC2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="AE2" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="AF2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG2" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="AH2" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI2" s="49" t="s">
-        <v>579</v>
       </c>
       <c r="AJ2" s="50"/>
       <c r="AK2" s="50"/>
@@ -7079,61 +8084,61 @@
       <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="80" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="85" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>580</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="85" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="80" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="85" t="s">
         <v>582</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="93">
+        <v>43165</v>
+      </c>
+      <c r="M3" s="86"/>
+      <c r="N3" s="94" t="s">
         <v>583</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="88">
-        <v>43165</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="89" t="s">
+      <c r="O3" s="86"/>
+      <c r="P3" s="93">
+        <v>43379</v>
+      </c>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="88">
-        <v>43379</v>
-      </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="80" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="85" t="s">
         <v>585</v>
       </c>
-      <c r="S3" s="81"/>
-      <c r="T3" s="80" t="s">
+      <c r="U3" s="86"/>
+      <c r="V3" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="80" t="s">
+      <c r="W3" s="86"/>
+      <c r="X3" s="85" t="s">
         <v>587</v>
       </c>
-      <c r="W3" s="81"/>
-      <c r="X3" s="80" t="s">
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="80" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87">
         <v>43107</v>
       </c>
-      <c r="AC3" s="81"/>
+      <c r="AC3" s="86"/>
       <c r="AD3" s="49"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="49"/>
@@ -7141,7 +8146,7 @@
       <c r="AH3" s="49"/>
       <c r="AI3" s="49"/>
       <c r="AJ3" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AK3" s="50"/>
       <c r="AL3" s="51"/>
@@ -7166,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C4" s="54">
         <v>33819</v>
@@ -7256,7 +8261,7 @@
         <v>211</v>
       </c>
       <c r="AJ4" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AK4" s="58"/>
       <c r="AL4" s="46"/>
@@ -7281,7 +8286,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" s="60">
         <v>33740</v>
@@ -7390,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C6" s="64">
         <v>35043</v>
@@ -7465,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="60">
         <v>35238</v>
@@ -7555,7 +8560,7 @@
         <v>211</v>
       </c>
       <c r="AJ7" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AK7" s="58"/>
       <c r="AL7" s="46"/>
@@ -7580,7 +8585,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C8" s="60">
         <v>35064</v>
@@ -7637,13 +8642,13 @@
         <v>211</v>
       </c>
       <c r="U8" s="70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V8" s="57" t="s">
         <v>211</v>
       </c>
       <c r="W8" s="70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X8" s="57" t="s">
         <v>211</v>
@@ -7666,7 +8671,7 @@
         <v>211</v>
       </c>
       <c r="AJ8" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="46"/>
@@ -7691,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C9" s="60">
         <v>35699</v>
@@ -7768,7 +8773,7 @@
         <v>211</v>
       </c>
       <c r="AC9" s="57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AD9" s="57"/>
       <c r="AE9" s="57"/>
@@ -7779,7 +8784,7 @@
         <v>211</v>
       </c>
       <c r="AJ9" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="46"/>
@@ -7804,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C10" s="60">
         <v>35245</v>
@@ -7894,7 +8899,7 @@
         <v>211</v>
       </c>
       <c r="AJ10" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AK10" s="58"/>
       <c r="AL10" s="46"/>
@@ -7919,7 +8924,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C11" s="60">
         <v>35843</v>
@@ -8009,7 +9014,7 @@
         <v>211</v>
       </c>
       <c r="AJ11" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="46"/>
@@ -8034,7 +9039,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C12" s="60">
         <v>33974</v>
@@ -8097,7 +9102,7 @@
         <v>211</v>
       </c>
       <c r="W12" s="57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="X12" s="71" t="s">
         <v>211</v>
@@ -8149,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13" s="60">
         <v>35773</v>
@@ -8221,7 +9226,7 @@
         <v>211</v>
       </c>
       <c r="AJ13" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="46"/>
@@ -8246,7 +9251,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C14" s="60">
         <v>35742</v>
@@ -8334,7 +9339,7 @@
         <v>211</v>
       </c>
       <c r="AJ14" s="58" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AK14" s="58"/>
       <c r="AL14" s="46"/>
@@ -8359,7 +9364,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C15" s="60">
         <v>35629</v>
@@ -8443,7 +9448,7 @@
         <v>211</v>
       </c>
       <c r="AJ15" s="58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AK15" s="58"/>
       <c r="AL15" s="46"/>
@@ -8468,7 +9473,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C16" s="64">
         <v>35772</v>
@@ -8537,7 +9542,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C17" s="60">
         <v>35406</v>
@@ -8625,7 +9630,7 @@
         <v>211</v>
       </c>
       <c r="AJ17" s="58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="46"/>
@@ -8650,7 +9655,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C18" s="60">
         <v>33515</v>
@@ -8701,13 +9706,13 @@
         <v>211</v>
       </c>
       <c r="U18" s="70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V18" s="57" t="s">
         <v>211</v>
       </c>
       <c r="W18" s="70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X18" s="70"/>
       <c r="Y18" s="70"/>
@@ -8753,7 +9758,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" s="60">
         <v>35044</v>
@@ -8858,7 +9863,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C20" s="64">
         <v>33851</v>
@@ -8923,7 +9928,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C21" s="64">
         <v>32806</v>

--- a/CFA curriculumn learning tracking.xlsx
+++ b/CFA curriculumn learning tracking.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="659">
   <si>
     <t>Equity valuation</t>
   </si>
@@ -2007,6 +2007,18 @@
   </si>
   <si>
     <t>2 listening</t>
+  </si>
+  <si>
+    <t>Ko co quyen 4 &amp; 5 &amp; 6</t>
+  </si>
+  <si>
+    <t>Chevning scholarship</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>Recovery of the 1000 hours that were wasted</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2227,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2303,8 +2315,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2416,13 +2434,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2586,15 +2617,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2606,22 +2647,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5857,11 +5890,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5877,7 +5910,7 @@
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>445</v>
       </c>
@@ -5909,13 +5942,13 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>446</v>
       </c>
       <c r="B2" s="29">
         <f>B1-SUM(C7:C1048576)</f>
-        <v>2261.25</v>
+        <v>2217.25</v>
       </c>
       <c r="M2" s="83" t="s">
         <v>636</v>
@@ -5924,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>456</v>
       </c>
@@ -5945,13 +5978,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>460</v>
       </c>
       <c r="B4" s="33">
         <f>(B1-B2)/B1</f>
-        <v>5.7812500000000003E-2</v>
+        <v>7.6145833333333329E-2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="F4" t="s">
@@ -5976,7 +6009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="F5" t="s">
@@ -6003,8 +6036,11 @@
       <c r="N5" s="83">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>447</v>
       </c>
@@ -6018,7 +6054,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>43283</v>
       </c>
@@ -6033,7 +6069,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>478</v>
@@ -6046,7 +6082,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>479</v>
@@ -6060,7 +6096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
         <v>449</v>
@@ -6070,7 +6106,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>43284</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
         <v>480</v>
@@ -6101,7 +6137,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
         <v>449</v>
@@ -6111,7 +6147,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>43285</v>
       </c>
@@ -6130,7 +6166,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
         <v>487</v>
@@ -6149,7 +6185,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>43286</v>
       </c>
@@ -6202,22 +6238,28 @@
         <v>7.6499999999999995</v>
       </c>
       <c r="L18" s="84">
-        <v>4</v>
+        <f>((40-5)/40)*9</f>
+        <v>7.875</v>
       </c>
       <c r="M18" s="84">
-        <v>5</v>
+        <f>((40-3)/40)*9</f>
+        <v>8.3250000000000011</v>
       </c>
       <c r="N18" s="84">
-        <v>6</v>
+        <f>((40-5)/40)*9</f>
+        <v>7.875</v>
       </c>
       <c r="O18" s="84">
-        <v>7</v>
+        <f>((40-2)/40)*9</f>
+        <v>8.5499999999999989</v>
       </c>
       <c r="P18" s="84">
-        <v>8</v>
+        <f>((40-2)/40)*9</f>
+        <v>8.5499999999999989</v>
       </c>
       <c r="Q18" s="84">
-        <v>9</v>
+        <f>((40-4)/40)*9</f>
+        <v>8.1</v>
       </c>
       <c r="R18" s="84">
         <v>10</v>
@@ -6388,6 +6430,9 @@
       <c r="E26" t="s">
         <v>622</v>
       </c>
+      <c r="H26" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
@@ -6647,17 +6692,20 @@
         <v>650</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
         <v>635</v>
       </c>
       <c r="C49" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" s="86" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <v>43312</v>
       </c>
@@ -6669,7 +6717,7 @@
       </c>
       <c r="D50" s="80"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
         <v>628</v>
@@ -6681,7 +6729,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
         <v>635</v>
@@ -6691,261 +6739,353 @@
       </c>
       <c r="D52" s="80"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>43318</v>
       </c>
-      <c r="B53" s="81" t="s">
-        <v>479</v>
+      <c r="B53" s="27" t="s">
+        <v>628</v>
       </c>
       <c r="C53" s="27">
-        <v>1</v>
-      </c>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C54" s="27">
+        <v>4</v>
+      </c>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="26">
+        <v>43319</v>
+      </c>
+      <c r="B55" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C55" s="85">
+        <v>1</v>
+      </c>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="C54" s="27">
-        <v>3</v>
-      </c>
-      <c r="D54" s="27" t="s">
+      <c r="C56" s="27">
+        <v>2</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="C55" s="27">
-        <v>2</v>
-      </c>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="26">
-        <v>43319</v>
-      </c>
-      <c r="B56" s="81" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="27">
-        <v>1</v>
-      </c>
-      <c r="D56" s="27"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C57" s="27">
+        <v>2</v>
+      </c>
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
+        <v>43320</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>628</v>
-      </c>
-      <c r="C57" s="27">
-        <v>3</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27" t="s">
-        <v>635</v>
       </c>
       <c r="C58" s="27">
         <v>2</v>
       </c>
-      <c r="D58" s="27"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="26">
-        <v>43320</v>
-      </c>
+      <c r="D58" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
       <c r="B59" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C59" s="27">
+        <v>4</v>
+      </c>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="27">
+        <v>1</v>
+      </c>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="26">
+        <v>43321</v>
+      </c>
+      <c r="B61" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C61" s="27">
         <v>3.5</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D61" s="27" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C62" s="27">
+        <v>3</v>
+      </c>
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C63" s="27">
+        <v>1</v>
+      </c>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="26">
+        <v>43322</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C64" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="26">
-        <v>43321</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="C62" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
-        <v>43322</v>
-      </c>
-      <c r="B65" s="27"/>
+        <v>43323</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>479</v>
+      </c>
       <c r="C65" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>653</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C66" s="27">
+        <v>1.5</v>
+      </c>
       <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="26">
+        <v>43324</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C67" s="27">
+        <v>4</v>
+      </c>
       <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="26">
-        <v>43323</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C68" s="27">
+        <v>3</v>
+      </c>
       <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
+      <c r="A69" s="26">
+        <v>43325</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" s="27">
+        <v>1</v>
+      </c>
       <c r="D69" s="27"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="26">
-        <v>43324</v>
-      </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C70" s="27">
+        <v>2</v>
+      </c>
       <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
+      <c r="B71" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C71" s="27">
+        <v>2</v>
+      </c>
       <c r="D71" s="27"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
+      <c r="A72" s="26">
+        <v>43326</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C72" s="27">
+        <v>1</v>
+      </c>
       <c r="D72" s="27"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="26">
-        <v>43325</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C73" s="27">
+        <v>2</v>
+      </c>
       <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C74" s="27">
+        <v>2</v>
+      </c>
       <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
+      <c r="A75" s="26">
+        <v>43327</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="27">
+        <v>1</v>
+      </c>
       <c r="D75" s="27"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="26">
-        <v>43326</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C76" s="27">
+        <v>2</v>
+      </c>
       <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C77" s="27">
+        <v>2</v>
+      </c>
       <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
+      <c r="A78" s="26">
+        <v>43328</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C78" s="27">
+        <v>3</v>
+      </c>
       <c r="D78" s="27"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="26">
-        <v>43327</v>
-      </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C79" s="27">
+        <v>3</v>
+      </c>
       <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
+      <c r="A80" s="26">
+        <v>43329</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C80" s="27">
+        <v>1</v>
+      </c>
       <c r="D80" s="27"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="C81" s="27">
+        <v>3</v>
+      </c>
       <c r="D81" s="27"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="26">
-        <v>43328</v>
-      </c>
+      <c r="A82" s="27"/>
       <c r="B82" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" s="27">
+        <v>3</v>
+      </c>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="26">
+        <v>43330</v>
+      </c>
+      <c r="B83" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C83" s="80">
         <v>4</v>
       </c>
-      <c r="D82" s="27"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="D83" s="80" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
@@ -7258,36 +7398,6 @@
       <c r="B135" s="27"/>
       <c r="C135" s="27"/>
       <c r="D135" s="27"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7872,83 +7982,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="89" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="92" t="s">
         <v>558</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="92" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="87" t="s">
         <v>561</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="87" t="s">
         <v>562</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="88" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="87" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="88" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="87" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="95" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="93" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="88" t="s">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87" t="s">
         <v>566</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="88" t="s">
+      <c r="Q1" s="88"/>
+      <c r="R1" s="87" t="s">
         <v>567</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="88" t="s">
+      <c r="S1" s="88"/>
+      <c r="T1" s="87" t="s">
         <v>568</v>
       </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="88" t="s">
+      <c r="U1" s="88"/>
+      <c r="V1" s="87" t="s">
         <v>569</v>
       </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="88" t="s">
+      <c r="W1" s="88"/>
+      <c r="X1" s="87" t="s">
         <v>570</v>
       </c>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="88" t="s">
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="87" t="s">
         <v>571</v>
       </c>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="88" t="s">
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="87" t="s">
         <v>572</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="88" t="s">
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="88" t="s">
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="88" t="s">
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="92"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="98"/>
       <c r="AN1" s="46"/>
       <c r="AO1" s="46"/>
       <c r="AP1" s="46"/>
@@ -7965,9 +8075,9 @@
       <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="49" t="s">
         <v>576</v>
       </c>
@@ -8084,61 +8194,61 @@
       <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="85" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="85" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="85" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="99" t="s">
         <v>582</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="93">
+      <c r="K3" s="88"/>
+      <c r="L3" s="100">
         <v>43165</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="101" t="s">
         <v>583</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="93">
+      <c r="O3" s="88"/>
+      <c r="P3" s="100">
         <v>43379</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="85" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="99" t="s">
         <v>584</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="85" t="s">
+      <c r="S3" s="88"/>
+      <c r="T3" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="U3" s="86"/>
-      <c r="V3" s="85" t="s">
+      <c r="U3" s="88"/>
+      <c r="V3" s="99" t="s">
         <v>586</v>
       </c>
-      <c r="W3" s="86"/>
-      <c r="X3" s="85" t="s">
+      <c r="W3" s="88"/>
+      <c r="X3" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="85" t="s">
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="99" t="s">
         <v>588</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="87">
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="94">
         <v>43107</v>
       </c>
-      <c r="AC3" s="86"/>
+      <c r="AC3" s="88"/>
       <c r="AD3" s="49"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="49"/>
@@ -63896,19 +64006,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -63925,11 +64027,19 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
